--- a/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>101,25%</t>
+          <t>197,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>238,46%</t>
+          <t>123,93%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,84</t>
+          <t>5,23; 11,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,83</t>
+          <t>2,69; 8,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,44; 212,35</t>
+          <t>90,43; 447,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>125,95; 434,3</t>
+          <t>39,48; 251,22</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>2,97</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,89%</t>
+          <t>122,92%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,35</t>
+          <t>1,9; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,48</t>
+          <t>1,66; 4,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,85; 178,18</t>
+          <t>31,94; 107,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,98; 110,51</t>
+          <t>57,76; 222,55</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>72,36%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,83</t>
+          <t>0,19; 3,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,15</t>
+          <t>-0,29; 2,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 170,07</t>
+          <t>2,19; 186,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 207,46</t>
+          <t>-17,75; 267,66</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>79,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>118,9%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,26</t>
+          <t>2,51; 4,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,24</t>
+          <t>2,03; 4,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,91; 151,44</t>
+          <t>48,38; 113,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,27; 122,32</t>
+          <t>67,9; 183,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>197,81%</t>
+          <t>225,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,63</t>
+          <t>5,76; 11,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,43; 447,33</t>
+          <t>107,55; 421,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,9</t>
+          <t>2,2; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,94; 107,61</t>
+          <t>41,25; 118,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 3,25</t>
+          <t>-1,05; 2,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 186,04</t>
+          <t>-30,64; 105,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,68</t>
+          <t>2,35; 4,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,38; 113,44</t>
+          <t>50,83; 115,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Estudios-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>8,57</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>123,93%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>225,62%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>123,93%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,69; 8,83</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>5,76; 11,79</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 8,83</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>39,48; 251,22</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>107,55; 421,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>39,48; 251,22</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>3,47</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>122,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>74,22%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>122,92%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,66; 4,38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>2,2; 4,99</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 4,38</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>57,76; 222,55</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>41,25; 118,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>57,76; 222,55</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>72,36%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>28,54%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>72,36%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,29; 2,96</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-1,05; 2,07</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 2,96</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-17,75; 267,66</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-30,64; 105,29</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; 267,66</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>3,34</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>118,9%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>82,11%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>118,9%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,03; 4,1</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>2,35; 4,27</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 4,1</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>67,9; 183,62</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>50,83; 115,91</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>67,9; 183,62</t>
         </is>
       </c>
     </row>
